--- a/data/income_statement/3digits/total/032_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/032_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>032-Aquaculture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>032-Aquaculture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,38 +841,43 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>265138.47124</v>
+        <v>265980.96164</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>326994.15486</v>
+        <v>329774.51535</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>439665.5535</v>
+        <v>443853.7733100001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>511562.8580700001</v>
+        <v>518776.83628</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>586166.098</v>
+        <v>592498.88069</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>849189.0800600001</v>
+        <v>849189.0800599999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1123745.29943</v>
+        <v>1124610.82313</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1043711.62563</v>
+        <v>1070151.37645</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1194905.84135</v>
@@ -980,37 +886,42 @@
         <v>1531636.67319</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2050530.97639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2060498.29932</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2568500.342</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>216699.72654</v>
+        <v>217542.21694</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>290256.2553200001</v>
+        <v>293036.61581</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>389369.99246</v>
+        <v>393558.21227</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>457653.18109</v>
+        <v>464867.1592999999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>529652.14229</v>
+        <v>535984.92498</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>756870.6619100001</v>
+        <v>756870.66191</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>986603.92143</v>
+        <v>987447.67599</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>851991.4843800002</v>
+        <v>877712.5940800001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>996312.7888099999</v>
@@ -1019,13 +930,18 @@
         <v>1219378.47016</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1581523.52738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1591397.56097</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1948610.646</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>31052.66267</v>
@@ -1049,7 +965,7 @@
         <v>114056.67257</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>171337.62951</v>
+        <v>172056.27063</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>182751.30871</v>
@@ -1058,13 +974,18 @@
         <v>293467.37687</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>448067.3469400001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>448108.2766900001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>591230.287</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>17386.08203</v>
@@ -1085,7 +1006,7 @@
         <v>25914.26995</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>23084.70543</v>
+        <v>23106.47457</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>20382.51174</v>
@@ -1097,13 +1018,18 @@
         <v>18790.82616</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>20940.10207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>20992.46166</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>28659.409</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>4695.015179999999</v>
@@ -1127,10 +1053,10 @@
         <v>6623.03126</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>9235.75727</v>
+        <v>9246.163980000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>32213.87447999999</v>
+        <v>32213.87448</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>29515.65422</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>26031.16557</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>37099.99</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2019.18395</v>
@@ -1160,13 +1091,13 @@
         <v>2654.81045</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5891.04615</v>
+        <v>5891.046149999999</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>4932.31492</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3674.72842</v>
+        <v>3682.24161</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>28329.73593</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>19482.97157</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>22547.706</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1478.78284</v>
@@ -1205,7 +1141,7 @@
         <v>1084.50196</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1245.79995</v>
+        <v>1248.69347</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1528.81463</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1347.49522</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>7926.255</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1197.04839</v>
@@ -1244,7 +1185,7 @@
         <v>606.21438</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4315.2289</v>
+        <v>4315.228899999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>2355.32392</v>
@@ -1253,37 +1194,42 @@
         <v>3782.61322</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5200.698780000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5200.69878</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6626.029</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>260443.45606</v>
+        <v>261285.94646</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>323060.36139</v>
+        <v>325840.72188</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>436019.94236</v>
+        <v>440208.16217</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>506209.7591500001</v>
+        <v>513423.73736</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>582481.3528100001</v>
+        <v>588814.1355</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>841262.1810499999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1117122.26817</v>
+        <v>1117987.79187</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1034475.86836</v>
+        <v>1060905.21247</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1162691.96687</v>
@@ -1292,37 +1238,42 @@
         <v>1502121.01897</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2024499.81082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2034467.13375</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2531400.352</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>225802.17429</v>
+        <v>226964.98534</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>279236.11225</v>
+        <v>282232.38825</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>357345.27051</v>
+        <v>362670.98515</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>428792.37311</v>
+        <v>435949.5548400001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>514055.0193400001</v>
+        <v>520455.0793400001</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>719015.6753199999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>958891.8307</v>
+        <v>959660.5221500001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>877177.6304699999</v>
+        <v>899211.06609</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>973950.75272</v>
@@ -1331,52 +1282,62 @@
         <v>1228559.95503</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1715913.2579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1724799.20224</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2080885.544</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>145775.21203</v>
+        <v>146938.02308</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>179468.65689</v>
+        <v>182464.93289</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>211220.76777</v>
+        <v>216546.48241</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>273404.9112</v>
+        <v>280562.09293</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>324319.34593</v>
+        <v>330719.40593</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>487562.15048</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>672634.3675000001</v>
+        <v>673403.05895</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>512880.27638</v>
+        <v>532684.74694</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>685970.40455</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>882289.3459000001</v>
+        <v>882289.3459</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1195757.85098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1199275.7388</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1439566.955</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>71735.14638999999</v>
@@ -1400,7 +1361,7 @@
         <v>271714.39003</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>344904.78713</v>
+        <v>346888.45198</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>264230.20759</v>
@@ -1409,16 +1370,21 @@
         <v>314450.04389</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>474060.58665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>474099.63015</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>589756.9129999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5943.763400000001</v>
+        <v>5943.7634</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>6283.805609999999</v>
@@ -1427,7 +1393,7 @@
         <v>8783.94505</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6458.656029999999</v>
+        <v>6458.65603</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>9707.66613</v>
@@ -1436,7 +1402,7 @@
         <v>15321.54347</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8596.825369999999</v>
+        <v>8596.82537</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>9629.765629999998</v>
@@ -1448,13 +1414,18 @@
         <v>24507.68361</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>41410.34454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>41428.84583</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>31597.891</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2348.05247</v>
@@ -1463,7 +1434,7 @@
         <v>500.74126</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>604.7494</v>
+        <v>604.7493999999999</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>689.2791500000001</v>
@@ -1478,46 +1449,51 @@
         <v>5946.247800000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9762.80133</v>
+        <v>10008.10154</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>8788.950349999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7312.88163</v>
+        <v>7312.881630000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4684.475729999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9994.98746</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>19963.785</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>34641.28176999999</v>
+        <v>34320.96112</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>43824.24914</v>
+        <v>43608.33363</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>78674.67185</v>
+        <v>77537.17702</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>77417.38604</v>
+        <v>77474.18252000002</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>68426.33347</v>
+        <v>68359.05615999999</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>122246.50573</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>158230.43747</v>
+        <v>158327.26972</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>157298.23789</v>
+        <v>161694.14638</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>188741.21415</v>
@@ -1526,58 +1502,68 @@
         <v>273561.06394</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>308586.5529199999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>309667.93151</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>450514.808</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>21570.86796</v>
+        <v>21644.176</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>25864.37527</v>
+        <v>26060.57955</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>33576.07556</v>
+        <v>33704.16954</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>43519.92467</v>
+        <v>43978.16673</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>44888.12861</v>
+        <v>45361.62777</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>55938.65343999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>66288.17334000001</v>
+        <v>66376.31959</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>87240.13819</v>
+        <v>88605.65109</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>99924.08448999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>130129.78331</v>
+        <v>130130.52977</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>176715.02821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>177246.77451</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>223284.637</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>35.04458</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>31.05834</v>
+        <v>77.07733999999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>139.12598</v>
@@ -1592,10 +1578,10 @@
         <v>170.01674</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>300.9865799999999</v>
+        <v>300.98658</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>895.3029300000001</v>
+        <v>895.3029299999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>867.79284</v>
@@ -1606,26 +1592,31 @@
       <c r="M21" s="48" t="n">
         <v>284.04434</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>743.689</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5608.34225</v>
+        <v>5625.94225</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>6790.65442</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>8743.58916</v>
+        <v>8871.683140000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>13306.37407</v>
+        <v>13501.02953</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>15891.7764</v>
+        <v>16110.51577</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>23043.90973</v>
@@ -1634,100 +1625,115 @@
         <v>30363.01961</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>48943.94115999999</v>
+        <v>49884.42422</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>46653.33054</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>65262.45278</v>
+        <v>65262.45277999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>81629.04381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>81629.10881000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>106939.651</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>15927.48113</v>
+        <v>15983.18917</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>19042.66251</v>
+        <v>19192.84779</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>24693.36042</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>30004.10583</v>
+        <v>30267.69243</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>28873.93147</v>
+        <v>29128.69126</v>
       </c>
       <c r="H23" s="48" t="n">
         <v>32724.72697</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>35624.16715</v>
+        <v>35712.31340000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>37400.89409999999</v>
+        <v>37825.92394</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>52402.96111</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>64056.49681</v>
+        <v>64057.24327000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>94801.94006000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>95333.62135999999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>115601.297</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>13070.41381</v>
+        <v>12676.78512</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>17959.87387</v>
+        <v>17547.75408</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>45098.59629000001</v>
+        <v>43833.00748</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>33897.46137</v>
+        <v>33496.01579</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>23538.20486</v>
+        <v>22997.42839</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>66307.85229</v>
+        <v>66307.85229000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>91942.26413</v>
+        <v>91950.95013</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>70058.09969999999</v>
+        <v>73088.49529000001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>88817.12965999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>143431.28063</v>
+        <v>143430.53417</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>131871.52471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>132421.157</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>227230.171</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>12209.23412</v>
@@ -1742,16 +1748,16 @@
         <v>23715.26883</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>25163.14263</v>
+        <v>25164.20323</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>37420.80817999999</v>
+        <v>37420.80818</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>86294.55220000001</v>
+        <v>86376.68171999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>54541.00768000001</v>
+        <v>54809.69839</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>103951.57544</v>
@@ -1760,13 +1766,18 @@
         <v>291596.81256</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>154850.08185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>154787.81912</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>269870.733</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3.89206</v>
@@ -1796,16 +1807,21 @@
         <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>5895.301600000001</v>
+        <v>5895.3016</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>3324.825</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>3217.01</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>409.90859</v>
+        <v>409.9085899999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>725.80708</v>
+        <v>725.8070799999999</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>1509.62981</v>
@@ -1868,7 +1889,7 @@
         <v>4401.03627</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4286.25987</v>
+        <v>4286.259869999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>4075.7481</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>6189.52816</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>2627.022</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>121.53437</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>13.88186</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>56.07</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>29.81099</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>4161.92169</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3305.962</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3.52939</v>
@@ -1991,22 +2027,27 @@
         <v>2.85923</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>70.22642000000002</v>
+        <v>70.22642</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>1871.47138</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2007.11</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>8510.148209999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9073.63394</v>
+        <v>9073.633940000002</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>11815.08144</v>
@@ -2015,16 +2056,16 @@
         <v>17069.79173</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>14774.16217</v>
+        <v>14775.22277</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>27583.342</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>62269.78904</v>
+        <v>62351.91856000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>36841.27703</v>
+        <v>37109.96774</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>67749.45239000001</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>116772.43427</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>219516.728</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.1067</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3130.41051</v>
@@ -2135,7 +2191,7 @@
         <v>5368.32929</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5900.73204</v>
+        <v>5900.732040000001</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>6584.206560000001</v>
@@ -2150,13 +2206,18 @@
         <v>10456.79606</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>22515.91279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>22453.65006</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>39140.831</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>14256.83813</v>
@@ -2168,7 +2229,7 @@
         <v>22957.98734</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>22161.26501</v>
+        <v>22192.19808</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>40696.68749</v>
@@ -2177,25 +2238,30 @@
         <v>60164.90392</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>142506.31645</v>
+        <v>142588.44637</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>50221.78942</v>
+        <v>50953.48032</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>94249.74592999999</v>
+        <v>94249.74593</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>253359.27794</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>146909.62417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>146967.53979</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>252070.868</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>20.79291</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>410.74076</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>52.727</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1267.43124</v>
@@ -2255,10 +2326,10 @@
         <v>3695.39606</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>759.4759</v>
+        <v>759.4758999999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1695.84195</v>
+        <v>2137.30948</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>5677.50152</v>
@@ -2267,13 +2338,18 @@
         <v>10277.03037</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4929.722390000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4929.72239</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>214.365</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>44.19386</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2226.39748</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>104.073</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>9414.752</v>
@@ -2324,7 +2405,7 @@
         <v>19439.81191</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>14261.98592</v>
+        <v>14292.91899</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>34568.43929</v>
@@ -2333,10 +2414,10 @@
         <v>52290.87142</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>122670.06381</v>
+        <v>122752.19373</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>44414.89481000001</v>
+        <v>44705.11818</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>74812.89524000001</v>
@@ -2345,13 +2426,18 @@
         <v>233751.3711</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>128035.36307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>128093.27869</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>228138.959</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.6</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3503.06812</v>
@@ -2464,35 +2560,40 @@
       <c r="M43" s="48" t="n">
         <v>11307.40047</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>23560.744</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10192.12281</v>
+        <v>10217.65908</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>7644.25672</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>10904.88381</v>
+        <v>10910.02356</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>13124.93136</v>
+        <v>13242.48281</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>14946.57361</v>
+        <v>14991.65992</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>35660.25149</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>43247.80907</v>
+        <v>43247.83857</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>27795.06654</v>
+        <v>27977.25768</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>52995.56899</v>
@@ -2501,61 +2602,71 @@
         <v>106104.87505</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>63705.37917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>63707.18659</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>83146.198</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9633.324640000001</v>
+        <v>9658.860909999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7358.10866</v>
+        <v>7358.108660000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9939.66512</v>
+        <v>9944.804870000002</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>12528.30671</v>
+        <v>12645.85816</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>14421.67971</v>
+        <v>14466.76602</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>35370.03753</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>41851.97015000001</v>
+        <v>41851.99965</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>26173.55213</v>
+        <v>26355.74327</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>46187.55921999999</v>
+        <v>46187.55922</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>74681.16011</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>55835.58241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>55837.38983000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>78559.13800000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>558.7981699999999</v>
+        <v>558.79817</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>286.14806</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>965.2186899999999</v>
+        <v>965.21869</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>596.62465</v>
@@ -2573,7 +2684,7 @@
         <v>1621.51441</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>6808.009770000001</v>
+        <v>6808.00977</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>31423.71494</v>
@@ -2581,74 +2692,84 @@
       <c r="M46" s="48" t="n">
         <v>7869.796760000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>4587.06</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>830.6869899999998</v>
+        <v>411.5220299999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11124.98866</v>
+        <v>10712.86887</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>28179.30991</v>
+        <v>26908.58135</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>22326.53383</v>
+        <v>21776.60373</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-6941.913610000001</v>
+        <v>-7526.715790000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7903.505059999999</v>
+        <v>7903.50506</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-7517.309189999997</v>
+        <v>-7508.653090000003</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>46582.25142</v>
+        <v>48967.45568</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>45523.39018</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>75563.9402</v>
+        <v>75563.19374</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>76106.60322</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>76534.24974000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>161883.838</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4100.730070000001</v>
+        <v>4106.566260000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3766.1846</v>
+        <v>3947.67599</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5864.790029999999</v>
+        <v>7026.9713</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7260.94639</v>
+        <v>7941.38639</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5485.610799999999</v>
+        <v>6095.24617</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>11375.61595</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6957.73781</v>
+        <v>6957.73883</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>7203.62904</v>
+        <v>7274.328380000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>106855.90859</v>
@@ -2657,13 +2778,18 @@
         <v>15973.45763</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>25519.71393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>25550.90158</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>29713.677</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>500.76518</v>
@@ -2698,35 +2824,40 @@
       <c r="M49" s="48" t="n">
         <v>643.41608</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3599.96489</v>
+        <v>3605.80108</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3766.1846</v>
+        <v>3947.67599</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5861.20411</v>
+        <v>7023.38538</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4313.40795</v>
+        <v>4993.84795</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5473.446059999999</v>
+        <v>6083.081429999999</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>8004.56942</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6851.11468</v>
+        <v>6851.115699999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7203.62904</v>
+        <v>7274.32838</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>106836.25739</v>
@@ -2735,13 +2866,18 @@
         <v>15973.45763</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>24876.29785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>24907.4855</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>29713.519</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3692.63576</v>
@@ -2750,7 +2886,7 @@
         <v>1053.57044</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>7868.223050000001</v>
+        <v>7868.22305</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>1814.77868</v>
@@ -2759,13 +2895,13 @@
         <v>4283.928980000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7032.870819999999</v>
+        <v>7032.87082</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>9988.447880000002</v>
+        <v>9988.475370000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7160.059260000001</v>
+        <v>7173.65856</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>14459.7953</v>
@@ -2774,19 +2910,24 @@
         <v>13718.55075</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>16611.87849</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>17030.12531</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>15822.958</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1751.0189</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>46.95876000000001</v>
+        <v>46.95876</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>104.42802</v>
@@ -2795,13 +2936,13 @@
         <v>123.59678</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>76.85940000000001</v>
+        <v>76.85939999999999</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>39.95395000000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>289.39727</v>
+        <v>289.3972699999999</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>64.54422</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>202.30989</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>125.172</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>58.52047</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>1887.08856</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1037.857</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1883.09639</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>941.3726899999999</v>
+        <v>941.37269</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>7711.61166</v>
@@ -2879,10 +3030,10 @@
         <v>6117.671020000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>8811.863380000001</v>
+        <v>8811.890870000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>6783.442329999999</v>
+        <v>6797.04163</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>12674.84573</v>
@@ -2891,52 +3042,62 @@
         <v>13479.65322</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>14522.48004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14940.72686</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>14659.929</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1238.7813</v>
+        <v>825.4525299999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>13837.60282</v>
+        <v>13606.97442</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>26175.87689</v>
+        <v>26067.3296</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>27772.70154</v>
+        <v>27903.21144</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5740.231790000001</v>
+        <v>-5715.3986</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>12246.25019</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-10548.01926</v>
+        <v>-10539.38963</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>46625.82120000001</v>
+        <v>49068.1255</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>137919.50347</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>77818.84707999999</v>
+        <v>77818.10062000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>85014.43866</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>85055.02600999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>175774.557</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1831.54934</v>
@@ -2957,10 +3118,10 @@
         <v>6582.23785</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8572.526780000002</v>
+        <v>8572.52678</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>10406.78974</v>
+        <v>10857.54512</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>14471.71563</v>
@@ -2969,49 +3130,57 @@
         <v>16645.10371</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>19969.03912</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19996.34803</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>47477.715</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-592.76804</v>
+        <v>-1006.09681</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>11084.8282</v>
+        <v>10854.1998</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>19541.39699</v>
+        <v>19432.8497</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>21318.40132</v>
+        <v>21448.91122</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-9314.827100000002</v>
+        <v>-9289.993910000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5664.012340000002</v>
+        <v>5664.012339999997</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-19120.54604</v>
+        <v>-19111.91641</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>36219.03146000001</v>
+        <v>38210.58038</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>123447.78784</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>61173.74337</v>
+        <v>61172.99691000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>65045.39954</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>65058.67797999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>128296.842</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>250</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>228</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>240</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>